--- a/data/trans_camb/MCS12_SP_R3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.9763614981478153</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.6792445910350053</v>
+        <v>-0.6792445910350109</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.286728831470846</v>
@@ -655,7 +655,7 @@
         <v>6.044288379395013</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.867782662387755</v>
+        <v>6.86778266238775</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.435260943973996</v>
@@ -664,7 +664,7 @@
         <v>3.0627313894035</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.884662949630835</v>
+        <v>3.884662949630846</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.410620893553775</v>
+        <v>-1.6638504863487</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.865742228399901</v>
+        <v>-5.243832336747701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.762867483484965</v>
+        <v>-4.737467655169261</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.344792492788129</v>
+        <v>3.496031460978865</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.129477782823951</v>
+        <v>1.752713568524879</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.665979067448186</v>
+        <v>2.898789775881053</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.400693493015071</v>
+        <v>2.572610426096142</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07345633802746705</v>
+        <v>0.1353531562538713</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.111499883810684</v>
+        <v>1.125505581644204</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.588142821092073</v>
+        <v>6.753428287798265</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.961686862625511</v>
+        <v>3.026302944432716</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.814979074110552</v>
+        <v>3.790458777896916</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.00407134322617</v>
+        <v>10.85122120827826</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.05370057432907</v>
+        <v>10.1104825568376</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.17975034108661</v>
+        <v>10.34789913567407</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.360549678805645</v>
+        <v>8.107816353072387</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.259456878152489</v>
+        <v>6.116302410192972</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.005225605756577</v>
+        <v>6.768178330092982</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.03603587739614131</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.0250697870112284</v>
+        <v>-0.0250697870112286</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2230058307599381</v>
@@ -760,7 +760,7 @@
         <v>0.1849817088812327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2101842422747784</v>
+        <v>0.2101842422747782</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1798471109836419</v>
@@ -769,7 +769,7 @@
         <v>0.1013425846120278</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1285394419583254</v>
+        <v>0.1285394419583258</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04916155107789021</v>
+        <v>-0.06045154237434797</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.168180998941785</v>
+        <v>-0.1831179091480628</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1666871813793328</v>
+        <v>-0.1660975965858048</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.09727421188043599</v>
+        <v>0.09884816115274619</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06377682501909084</v>
+        <v>0.04897400178614555</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07604842685563763</v>
+        <v>0.0854795599963909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07524935156018168</v>
+        <v>0.0794340782396166</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.002361591250629748</v>
+        <v>0.004473932522094489</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.03438927459309048</v>
+        <v>0.03591241864748505</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2691230664423456</v>
+        <v>0.2679303228536082</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1214476850138398</v>
+        <v>0.1207130803007158</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1548355172228686</v>
+        <v>0.156784640469925</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3531448880809745</v>
+        <v>0.3538605333636792</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3245497613448811</v>
+        <v>0.3241546961815321</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3314729198798794</v>
+        <v>0.336324731135545</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.285115142658708</v>
+        <v>0.2813140530256623</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2137336038731172</v>
+        <v>0.213549042062232</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2433932065809396</v>
+        <v>0.2388266124225748</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.611092709464588</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.656238010510607</v>
+        <v>3.656238010510609</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>7.281793014782617</v>
@@ -878,7 +878,7 @@
         <v>1.274158355372226</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.80728880256888</v>
+        <v>2.807288802568883</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.868030933346985</v>
+        <v>3.511733304846526</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2880889051642764</v>
+        <v>0.07669564542214659</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.314128144538126</v>
+        <v>1.001462497079542</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.171967191698399</v>
+        <v>4.171817745899919</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.972161826541428</v>
+        <v>-3.049979501594391</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.217535452698235</v>
+        <v>-0.9804343090141842</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.766520517688981</v>
+        <v>4.763520941125313</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.576431665980861</v>
+        <v>-0.7695291934607823</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8781120907145347</v>
+        <v>0.999848521259857</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.803680021878899</v>
+        <v>8.561329568387997</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.027800100944358</v>
+        <v>4.932301012821209</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.392169040780256</v>
+        <v>6.050104011332606</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.9021103044909</v>
+        <v>10.05105808390345</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.632288824607347</v>
+        <v>2.370610944288456</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.419804861461973</v>
+        <v>4.540041748521016</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.805062558174507</v>
+        <v>8.758233255201796</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.112891881446309</v>
+        <v>3.070382427232975</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.584450433010772</v>
+        <v>4.758147904242358</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1794297166396679</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2512502707449341</v>
+        <v>0.2512502707449343</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3181240552902094</v>
@@ -983,7 +983,7 @@
         <v>0.06855239597129362</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1510380344704173</v>
+        <v>0.1510380344704175</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2384415516177771</v>
+        <v>0.2286236871018977</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.008617065986946075</v>
+        <v>0.002880550668446362</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.08227418916686334</v>
+        <v>0.06799166435913026</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1684984377710031</v>
+        <v>0.1741786525370499</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1224376019816152</v>
+        <v>-0.1239521098863566</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04905864290138073</v>
+        <v>-0.03896357564731549</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2448437481370309</v>
+        <v>0.2423231180512362</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0290355727977921</v>
+        <v>-0.03922645906078524</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.04312799722733156</v>
+        <v>0.04838201770008523</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6643489651189791</v>
+        <v>0.6487275576904382</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3726369764830559</v>
+        <v>0.3660607340565664</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4762427947482589</v>
+        <v>0.4553500693939278</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4622860623485845</v>
+        <v>0.4638299705408709</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1237441209170868</v>
+        <v>0.108765489070451</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.206633516646496</v>
+        <v>0.2156342371146874</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5013260069769389</v>
+        <v>0.5032356071514075</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1773209533239955</v>
+        <v>0.1735564986671677</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2576614906010041</v>
+        <v>0.2698336953643621</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.6587483696075841</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.981873022906043</v>
+        <v>2.981873022906037</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.086109544970533</v>
+        <v>-7.20575150789799</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.199932608581742</v>
+        <v>-4.167578179689258</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.995177294100045</v>
+        <v>-0.8968253007779139</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.970487266381445</v>
+        <v>-6.56045976452984</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.03431007477516</v>
+        <v>-7.509795170315854</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.724713427642942</v>
+        <v>-2.929317428198462</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.401785482309538</v>
+        <v>-5.484659848124354</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.491939441072205</v>
+        <v>-3.932434922411831</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.07829272934331594</v>
+        <v>-0.1442666091177812</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.09713929180426</v>
+        <v>2.135469151951477</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.63455852365642</v>
+        <v>5.046633392275405</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.933306392272935</v>
+        <v>7.751870380243124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.068677553832954</v>
+        <v>4.535275759935637</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.283759081284927</v>
+        <v>3.081235773839704</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.817818946217896</v>
+        <v>6.465407417268668</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.017053652800822</v>
+        <v>1.812793874305034</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.546268165170038</v>
+        <v>2.682601159564738</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.327528391147336</v>
+        <v>6.036906105378304</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.03590330934497429</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.162518974631549</v>
+        <v>0.1625189746315487</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4038664412995985</v>
+        <v>-0.4184364095095588</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2495990986395093</v>
+        <v>-0.2328771698337793</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09666586297251066</v>
+        <v>-0.04640199849746003</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2805929294258355</v>
+        <v>-0.268357705641577</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2824583621348546</v>
+        <v>-0.2985520710750474</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1050240146097142</v>
+        <v>-0.1130809626937428</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2693688919823336</v>
+        <v>-0.2712871128237812</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2214585552502492</v>
+        <v>-0.197144189622718</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.002558641476716163</v>
+        <v>-0.006411284143007932</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1719918730725256</v>
+        <v>0.1738083113946091</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3618105470278049</v>
+        <v>0.40522902013929</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5350298031099704</v>
+        <v>0.6056528828972182</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2097659063489655</v>
+        <v>0.238923069531126</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1788132809901188</v>
+        <v>0.1627526371734294</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3617699871882821</v>
+        <v>0.3454318880544124</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1224072515450876</v>
+        <v>0.1056308658319176</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1598417594090949</v>
+        <v>0.1629789736746134</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3823474541083201</v>
+        <v>0.3617409959136613</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.2618375898551489</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.170088788852436</v>
+        <v>1.170088788852441</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.682733350143849</v>
+        <v>1.378951188800323</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.693956754642874</v>
+        <v>-1.641932934162821</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.025609198819377</v>
+        <v>-0.9991451220901395</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.832861481540702</v>
+        <v>3.857014948493968</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.966275011373454</v>
+        <v>-1.907832543155933</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.6897491836977629</v>
+        <v>-0.7366244334313818</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.282787689544368</v>
+        <v>3.401351191360909</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.266900862791213</v>
+        <v>-1.20722988732721</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.3254414087923042</v>
+        <v>-0.1599423490106445</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.756946735321065</v>
+        <v>5.636485606724539</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.304981848783971</v>
+        <v>2.200143959663782</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.019766411687252</v>
+        <v>2.988557418445161</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.204375314692907</v>
+        <v>8.355065825596187</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.338880598011404</v>
+        <v>2.367773220627451</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.428377625492966</v>
+        <v>3.147870921362429</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.198148315365418</v>
+        <v>6.507235949268759</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.592875423216748</v>
+        <v>1.62341159155698</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.578141648280137</v>
+        <v>2.606936576681904</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.01155899862268624</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.05165436599935136</v>
+        <v>0.0516543659993516</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.08625790553321247</v>
+        <v>0.07032087214771177</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08789700530342305</v>
+        <v>-0.08309658617303892</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05147499882636001</v>
+        <v>-0.05098291132757993</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1422053819920043</v>
+        <v>0.1359215842662417</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07123105661416174</v>
+        <v>-0.06899776804021827</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02492068269360981</v>
+        <v>-0.02687247843233287</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.138321249179889</v>
+        <v>0.1428479109259575</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05376073065701729</v>
+        <v>-0.05190212876017088</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.01382248582038669</v>
+        <v>-0.007464622540512139</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3274850517515889</v>
+        <v>0.3179577040185441</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.129193879582624</v>
+        <v>0.1247684325755938</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1706134335269685</v>
+        <v>0.1685830027012826</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3217009609162817</v>
+        <v>0.3268520025080988</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09348421564133472</v>
+        <v>0.09302240418326954</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.134212514883305</v>
+        <v>0.122902160610205</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2820025560891459</v>
+        <v>0.2964333984165027</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.07288522182794473</v>
+        <v>0.0740274674522023</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1188962310271572</v>
+        <v>0.1170508777740907</v>
       </c>
     </row>
     <row r="28">
